--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_14_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52219.87462788757</v>
+        <v>10391755.05094961</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.934758516388</v>
+        <v>44636.7179053847</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>226.934758516388</v>
+        <v>44636.7179053847</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1189231283.736872</v>
+        <v>48853596.05683756</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10053.31114708625</v>
+        <v>1108736.952592366</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19260.46099042005</v>
+        <v>2084754.158850126</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28467.61083375385</v>
+        <v>3060771.365107888</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38035.26823622231</v>
+        <v>4052011.950759589</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>47526.42624475136</v>
+        <v>5028029.15701735</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57017.58425328041</v>
+        <v>6004046.363275111</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66508.74226180946</v>
+        <v>6980063.569532868</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>75999.9002703385</v>
+        <v>7956080.775790625</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>85491.05827886755</v>
+        <v>8932097.982048381</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>94982.21628739659</v>
+        <v>9908115.18830614</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>104473.3742959256</v>
+        <v>10884132.3945639</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>113630.5934627978</v>
+        <v>11844926.22142773</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>122864.3120236094</v>
+        <v>12820943.4276855</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>132150.3225672871</v>
+        <v>13790041.94266793</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>141436.3331109649</v>
+        <v>14759140.45765037</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>350</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>350</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>138</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
